--- a/Libraries/Vehicle/Suspension/LiveAxle/sm_car_data_Linkage_LiveAxle.xlsx
+++ b/Libraries/Vehicle/Suspension/LiveAxle/sm_car_data_Linkage_LiveAxle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Suspension\LiveAxle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E4E507-2C1E-49FC-AAC4-3C85C601079A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AA20C1-CA11-41DA-98E0-A8A2104C9632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="1215" yWindow="2505" windowWidth="17280" windowHeight="10155" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="LiveAxle_Sedan_Hamba_r" sheetId="5" r:id="rId1"/>
@@ -654,20 +654,20 @@
       <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="13" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -730,7 +730,7 @@
       </c>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -747,7 +747,7 @@
       </c>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -767,7 +767,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
@@ -807,7 +807,7 @@
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
@@ -855,7 +855,7 @@
       </c>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
@@ -873,7 +873,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
@@ -891,7 +891,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
@@ -907,7 +907,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
@@ -925,7 +925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
@@ -943,7 +943,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
@@ -961,7 +961,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="14" t="s">
         <v>11</v>
@@ -988,7 +988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
@@ -1010,7 +1010,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
@@ -1026,7 +1026,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9" t="s">
@@ -1042,7 +1042,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="16" t="s">
         <v>16</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">

--- a/Libraries/Vehicle/Suspension/LiveAxle/sm_car_data_Linkage_LiveAxle.xlsx
+++ b/Libraries/Vehicle/Suspension/LiveAxle/sm_car_data_Linkage_LiveAxle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Suspension\LiveAxle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Suspension\LiveAxle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AA20C1-CA11-41DA-98E0-A8A2104C9632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDC61D-D080-452E-9BCB-A7328180792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2505" windowWidth="17280" windowHeight="10155" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="2430" yWindow="1095" windowWidth="25575" windowHeight="13875" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="LiveAxle_Sedan_Hamba_r" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Units</t>
   </si>
@@ -87,15 +87,9 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>Axle mass</t>
   </si>
   <si>
@@ -177,10 +171,16 @@
     <t>sAxle</t>
   </si>
   <si>
-    <t>Shock to Axle</t>
-  </si>
-  <si>
-    <t>Shock to Body</t>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>Shock to Body, Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Shock to Axle, Must be consistent with values in Spring, Damper</t>
   </si>
 </sst>
 </file>
@@ -281,12 +281,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -298,13 +297,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -345,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -385,7 +392,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -491,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -633,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,12 +658,12 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -698,7 +705,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -707,12 +714,10 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
-        <v>29</v>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -726,13 +731,13 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -743,9 +748,9 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -756,37 +761,36 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.78649999999999998</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
         <v>0.04</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -797,79 +801,79 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>20</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.5</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.64</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.2</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.64</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>0.2</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -877,17 +881,17 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -895,15 +899,14 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+        <v>34</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <v>2700</v>
       </c>
     </row>
@@ -911,17 +914,17 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <v>70</v>
       </c>
     </row>
@@ -929,17 +932,17 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15">
         <v>0.33</v>
       </c>
     </row>
@@ -947,67 +950,70 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="20">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="18">
         <v>1E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="20">
         <v>0.1</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="20">
         <v>0.44000000000000006</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="20">
         <v>0.8</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>20</v>
+      <c r="J17" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="20">
         <v>0.1</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="20">
         <v>0.54</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="20">
         <v>0.19999999999999998</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,13 +1022,12 @@
       <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -1032,67 +1037,77 @@
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11">
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19">
         <v>0.1</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>18</v>
+      <c r="J21" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="11">
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="19">
         <v>-0.15</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B17:C22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E20">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J22">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Suspension/LiveAxle/sm_car_data_Linkage_LiveAxle.xlsx
+++ b/Libraries/Vehicle/Suspension/LiveAxle/sm_car_data_Linkage_LiveAxle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Suspension\LiveAxle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDC61D-D080-452E-9BCB-A7328180792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC7983-E6DA-4874-BA96-4DE63CEE5D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1095" windowWidth="25575" windowHeight="13875" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="4710" yWindow="2010" windowWidth="23130" windowHeight="12540" tabRatio="794" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="LiveAxle_Sedan_Hamba_r" sheetId="5" r:id="rId1"/>
@@ -304,14 +304,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -658,7 +651,7 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +761,7 @@
         <v>0.78649999999999998</v>
       </c>
       <c r="H6" s="10">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1092,22 +1085,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B17:C22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="E17:E22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
